--- a/data/output/FV2504_FV2410/ORDERS/17116.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17116.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="196">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="196">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -692,6 +692,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U73" totalsRowShown="0">
+  <autoFilter ref="A1:U73"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -981,7 +1011,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4513,5 +4546,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17116.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17116.xlsx
@@ -1368,7 +1368,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2060,24 +2060,24 @@
       <c r="V15" s="5"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
         <v>168</v>
       </c>
       <c r="K16" s="6" t="s">
@@ -2086,21 +2086,21 @@
       <c r="L16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5" t="s">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5" t="s">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5" t="s">
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2" t="s">
         <v>168</v>
       </c>
       <c r="V16" s="6" t="s">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3042,52 +3042,52 @@
       <c r="V34" s="5"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="2"/>
       <c r="L35" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P35" s="5"/>
+      <c r="P35" s="2"/>
       <c r="Q35" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5" t="s">
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="V35" s="5"/>
+      <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="5" t="s">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4560,7 +4560,7 @@
         <v>184</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -4688,52 +4688,52 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="2"/>
       <c r="F66" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5" t="s">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K66" s="5"/>
+      <c r="K66" s="2"/>
       <c r="L66" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="M66" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N66" s="5" t="s">
+      <c r="N66" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O66" s="5" t="s">
+      <c r="O66" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P66" s="5"/>
+      <c r="P66" s="2"/>
       <c r="Q66" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5" t="s">
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="V66" s="5"/>
+      <c r="V66" s="2"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -4852,48 +4852,48 @@
       <c r="V68" s="5"/>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5" t="s">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="2"/>
       <c r="F69" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K69" s="5"/>
+      <c r="K69" s="2"/>
       <c r="L69" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M69" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5" t="s">
+      <c r="N69" s="2"/>
+      <c r="O69" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P69" s="5"/>
+      <c r="P69" s="2"/>
       <c r="Q69" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5" t="s">
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="V69" s="5"/>
+      <c r="V69" s="2"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -4952,48 +4952,48 @@
       <c r="V70" s="5"/>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5" t="s">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="2"/>
       <c r="F71" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5" t="s">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K71" s="5"/>
+      <c r="K71" s="2"/>
       <c r="L71" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5" t="s">
+      <c r="N71" s="2"/>
+      <c r="O71" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P71" s="5"/>
+      <c r="P71" s="2"/>
       <c r="Q71" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5" t="s">
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="V71" s="5"/>
+      <c r="V71" s="2"/>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="5" t="s">
